--- a/tester/board/BOM.xlsx
+++ b/tester/board/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santeri/parkkisahko/openevse/open_evse/tester/board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{980995D4-0C8F-744B-B9AB-F7B61530BDE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87138DF0-80BD-FD41-8FCE-B36BFC4648DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="460" windowWidth="28040" windowHeight="16520" xr2:uid="{D77DF8B5-3CF7-C141-BEB2-93459747370F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>Part</t>
   </si>
@@ -88,6 +88,126 @@
   </si>
   <si>
     <t>100 kOHM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF1206FT56K0CT-ND </t>
+  </si>
+  <si>
+    <t>56 kOHM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311-2.74KFRCT-ND </t>
+  </si>
+  <si>
+    <t>2.74 kOHM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311-887FRCT-ND </t>
+  </si>
+  <si>
+    <t>887 OHM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNCP1206FTD249RCT-ND </t>
+  </si>
+  <si>
+    <t>249 OHM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNCP1206FTD4K02CT-ND </t>
+  </si>
+  <si>
+    <t>4.02 kOHM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNCP1206FTD1K00CT-ND </t>
+  </si>
+  <si>
+    <t>1 kOHM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311-49.9KFRCT-ND </t>
+  </si>
+  <si>
+    <t>50 kOHM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A129798CT-ND </t>
+  </si>
+  <si>
+    <t>100 OHM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNCP1206FTD4K99CT-ND </t>
+  </si>
+  <si>
+    <t>5 kOHM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF14JT15K0CT-ND </t>
+  </si>
+  <si>
+    <t>15 kOHM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11KQBK-ND </t>
+  </si>
+  <si>
+    <t>11 kOHM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF14JT10K0CT-ND </t>
+  </si>
+  <si>
+    <t>10 kOHM</t>
+  </si>
+  <si>
+    <t>RNF14FTD20K0</t>
+  </si>
+  <si>
+    <t>20 kOHM</t>
+  </si>
+  <si>
+    <t>MFR-25FBF52-49K9</t>
+  </si>
+  <si>
+    <t>49.9 kOHM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF14JT100KCT-ND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">255-3874-1-ND </t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EJ503A-ND </t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">296-1398-5-ND </t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>945-1648-5-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">277-1721-ND </t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ED2610-ND </t>
   </si>
 </sst>
 </file>
@@ -450,15 +570,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53CEE2F-0008-904D-8148-12DAC311FCC5}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -562,6 +684,282 @@
       </c>
       <c r="D8" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -573,6 +971,27 @@
     <hyperlink ref="B6" r:id="rId5" display="https://www.digikey.fi/product-detail/en/yageo/RC1206FR-07402RL/311-402FRCT-ND/731847" xr:uid="{9CE9DAF1-9461-A447-BB47-5101ADEFAF31}"/>
     <hyperlink ref="B7" r:id="rId6" display="https://www.digikey.fi/product-detail/en/stackpole-electronics-inc/RMCF1206FT200K/RMCF1206FT200KCT-ND/1942736" xr:uid="{09F7DE8A-6741-3948-98AB-660E7F58F425}"/>
     <hyperlink ref="B8" r:id="rId7" display="https://www.digikey.fi/product-detail/en/te-connectivity-passive-product/CRGCQ1206F100K/A129834CT-ND/8577666" xr:uid="{F4D3D96E-A6F2-A949-BB68-CBB3C19F6F43}"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://www.digikey.fi/product-detail/en/stackpole-electronics-inc/RMCF1206FT56K0/RMCF1206FT56K0CT-ND/7906893" xr:uid="{47C4EF7E-BBE7-4F4D-B0DA-93EA434F643C}"/>
+    <hyperlink ref="B10" r:id="rId9" display="https://www.digikey.fi/product-detail/en/yageo/RC1206FR-072K74L/311-2.74KFRCT-ND/731607" xr:uid="{D5DE3196-BE65-DE47-B997-2B013FF2931F}"/>
+    <hyperlink ref="B11" r:id="rId10" display="https://www.digikey.fi/product-detail/en/yageo/RC1206FR-07887RL/311-887FRCT-ND/732094" xr:uid="{1EB372C8-CFAA-064B-8B88-054F7403536A}"/>
+    <hyperlink ref="B12" r:id="rId11" display="https://www.digikey.fi/product-detail/en/stackpole-electronics-inc/RNCP1206FTD249R/RNCP1206FTD249RCT-ND/2240661" xr:uid="{B1FD18D4-59C2-1544-A494-534807C0F3A0}"/>
+    <hyperlink ref="B13" r:id="rId12" display="https://www.digikey.fi/product-detail/en/stackpole-electronics-inc/RNCP1206FTD4K02/RNCP1206FTD4K02CT-ND/2240693" xr:uid="{5096498D-5D61-AE4E-83D0-CCB62E636BF9}"/>
+    <hyperlink ref="B14" r:id="rId13" display="https://www.digikey.fi/product-detail/en/stackpole-electronics-inc/RNCP1206FTD1K00/RNCP1206FTD1K00CT-ND/2240675" xr:uid="{C5CD69AD-1AE1-2F4E-99A8-7605E208509E}"/>
+    <hyperlink ref="B15" r:id="rId14" display="https://www.digikey.fi/product-detail/en/yageo/RC1206FR-0749K9L/311-49.9KFRCT-ND/731890" xr:uid="{3AF87631-FE56-0B4D-BDD8-81204790F8E1}"/>
+    <hyperlink ref="B16" r:id="rId15" display="https://www.digikey.fi/product-detail/en/te-connectivity-passive-product/CRGCQ1206F100R/A129798CT-ND/8577630" xr:uid="{64A44582-B694-FF43-9DF2-FB5987E27054}"/>
+    <hyperlink ref="B17" r:id="rId16" display="https://www.digikey.fi/product-detail/en/stackpole-electronics-inc/RNCP1206FTD4K99/RNCP1206FTD4K99CT-ND/2240698" xr:uid="{7CD163A9-BDF9-5B4C-AA06-614F7AE1EB7D}"/>
+    <hyperlink ref="B18" r:id="rId17" display="https://www.digikey.fi/product-detail/en/stackpole-electronics-inc/CF14JT15K0/CF14JT15K0CT-ND/1830379" xr:uid="{86A62BC1-8DD9-014B-869D-D2DAA01D461B}"/>
+    <hyperlink ref="B19" r:id="rId18" display="https://www.digikey.fi/product-detail/en/yageo/CFR-25JB-52-11K/11KQBK-ND/376" xr:uid="{9459D474-2CF9-6A45-996A-09505EA844D3}"/>
+    <hyperlink ref="B20" r:id="rId19" display="https://www.digikey.fi/product-detail/en/stackpole-electronics-inc/CF14JT10K0/CF14JT10K0CT-ND/1830374" xr:uid="{230EC008-2E43-B843-A451-D665DD6CC9D3}"/>
+    <hyperlink ref="B21" r:id="rId20" display="https://www.digikey.fi/product-detail/en/stackpole-electronics-inc/RNF14FTD20K0/RNF14FTD20K0CT-ND/1975114" xr:uid="{B93CA11A-4CA2-F648-960A-4967A34D769B}"/>
+    <hyperlink ref="B22" r:id="rId21" display="https://www.digikey.fi/product-detail/en/yageo/MFR-25FBF52-49K9/49.9KXBK-ND/13414" xr:uid="{D95D411A-B1E0-544A-ADE8-CC8AB0024A18}"/>
+    <hyperlink ref="B23" r:id="rId22" display="https://www.digikey.fi/product-detail/en/stackpole-electronics-inc/CF14JT100K/CF14JT100KCT-ND/1830399" xr:uid="{7FEEB97E-910E-CE41-98BA-BB57BD2F9D08}"/>
+    <hyperlink ref="B24" r:id="rId23" display="https://www.digikey.fi/product-detail/en/panasonic-electric-works/APV2111VY/255-3874-1-ND/3885571" xr:uid="{A96D1F55-3346-2144-AEE3-79847A5EC65E}"/>
+    <hyperlink ref="B25" r:id="rId24" display="https://www.digikey.fi/product-detail/en/mpd-memory-protection-devices/EJ503A/EJ503A-ND/5431753" xr:uid="{50A92584-9794-454F-8CD9-D7FFCD4DF3AD}"/>
+    <hyperlink ref="B26" r:id="rId25" display="https://www.digikey.fi/product-detail/en/texas-instruments/LM393P/296-1398-5-ND/277045" xr:uid="{0EBE49E7-E535-E041-A6F0-F4EF56D6F2B9}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{F24C1291-C080-AA4F-99DC-69961A7E9836}"/>
+    <hyperlink ref="B28" r:id="rId27" display="https://www.digikey.com/product-detail/en/phoenix-contact/1984617/277-1721-ND/950849" xr:uid="{17247022-7D07-EF4E-9CEF-4EAC97D3B5DA}"/>
+    <hyperlink ref="B29" r:id="rId28" display="https://www.digikey.com/product-detail/en/on-shore-technology-inc/OSTTC032162/ED2610-ND/614559" xr:uid="{8D424F1D-0B2D-0B41-ABFD-6E7A87D0B8DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
